--- a/LOPAMUDRA_BERA_DAY_01_27-02-2017.xlsx
+++ b/LOPAMUDRA_BERA_DAY_01_27-02-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevOps\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevOps\Project_Workspace\HealthMedicineQuest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>S.No</t>
   </si>
@@ -143,10 +143,52 @@
     <t> https://www.youtube.com/watch?v=FOtx1lO9SS4</t>
   </si>
   <si>
-    <t>Downloading and installing Git</t>
-  </si>
-  <si>
-    <t>1hr</t>
+    <t>"Pros
+Great standardized platform with all the basic styles and components needed (layout grid, panels, tables, buttons, modals, form styles, etc) to build on which saves a lot of time.
+Support for all major browsers and fixes CSS compatibility issues.
+Consistent UI that looks good out of the box.
+Lightweight and customizable (on their site or via less and sass) files so you can include only what you use.
+Designed with responsive structures and styles for mobile devices.
+Several javascript plugins included using jQuery.
+Icons included (now as a font file for infinite scaling).
+Good documentation and community support.
+Lots of free and professional templates, themes and plugins.
+Cons
+Styles are verbose and can lead to lots of HTML output that's not perfectly semantic.
+Javascript is tied to jQuery (it's by the far the most common javascript library though and the plugins can just as easily be left unused).
+Can require lots of overriding styles or rewriting their files if you have lots of customizations or want to deviate from Bootstrap structure.
+Websites can start to look the same if you don't customize the styles and colors much.
+It's great for most projects unless you're working on something very specialized. Bootstrap gives you a great looking platform with everything you need to start building out the interface without worrying about browser support and making things look the same on every device.
+This is a big time saver and it's all free and open-source. The files are already pretty small and customization by including only what you use can shrink it down significantly. It's especially great for mockups, prototypes, internal/intranet sites, documentation or anything which just needs a working UI very quickly."</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/What-are-the-pros-and-cons-of-using-Bootstrap-in-web-development</t>
+  </si>
+  <si>
+    <t>Advantages and Disadvantages of using Bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Top few benefits of Maven, in no particular order:
+Repeatable builds: if you can build the project, your colleagues will always be able to on their machines. It'll also be repeatable on the build server.
+Standardisation of the build system: new developers who understad Maven will instantly know how to build, release, test etc, removing a lot of learning overhead.
+Focus on automation: Maven puts you in a mindset of automating processes around your software development.
+Convention over configuration: no setup or minimal configuration required to build artifacts.
+Dependency management: Maven will resolve and manage your dependencies for you.
+Testing: the ability to run tests and integration tests as part of your project lifecycle.
+Plugins: there are thousands of plugins to carry out various tasks. These are simply configured in just by adding a reference into the POM."
+</t>
+  </si>
+  <si>
+    <t>Advantages of Maven</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/3528776/what-are-the-advantages-disadvantages-of-using-maven</t>
+  </si>
+  <si>
+    <t>Downloading and installing Git, uploading</t>
+  </si>
+  <si>
+    <t>90 Minutes</t>
   </si>
 </sst>
 </file>
@@ -599,7 +641,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,7 +799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -765,7 +807,7 @@
         <v>42793</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
@@ -774,7 +816,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>19</v>
@@ -881,15 +923,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,23 +948,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
